--- a/data/income_statement/2digits/size/53_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/53_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>53-Postal and courier activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>53-Postal and courier activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>32078.91058</v>
@@ -959,34 +865,39 @@
         <v>50949.23033</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>59906.56794</v>
+        <v>59940.03302</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>66302.49634</v>
+        <v>68171.23965999999</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>99474.44112</v>
+        <v>103861.24407</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>114530.99361</v>
+        <v>119590.70546</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>156185.63228</v>
+        <v>166129.19857</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>156945.8917</v>
+        <v>166118.66625</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>347632.85669</v>
+        <v>362116.93689</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>308101.26519</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>361435.40187</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>519051.08</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>29410.8571</v>
@@ -1001,31 +912,36 @@
         <v>49515.22154</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>59487.62822999999</v>
+        <v>61355.90354</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>87903.69490999999</v>
+        <v>92247.98675</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>102652.31093</v>
+        <v>106588.61764</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>123767.58398</v>
+        <v>132014.28156</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>127752.24305</v>
+        <v>135204.01083</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>256191.35328</v>
+        <v>268475.41627</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>227099.04739</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>267502.28766</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>391180.97</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>1426.25597</v>
@@ -1043,28 +959,33 @@
         <v>5126.79176</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>9219.772989999999</v>
+        <v>9259.14236</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>9861.079669999999</v>
+        <v>10976.43397</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>29553.27455</v>
+        <v>31231.65948</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>23832.41528</v>
+        <v>25007.1817</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>78318.17816</v>
+        <v>80431.74511</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>69182.25371999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>80738.6045</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>113057.151</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>1241.79751</v>
@@ -1076,34 +997,39 @@
         <v>669.7571999999999</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>323.49738</v>
+        <v>356.96246</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>1688.07635</v>
+        <v>1688.54436</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>2350.97322</v>
+        <v>2354.11496</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>2017.60301</v>
+        <v>2025.65385</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>2864.77375</v>
+        <v>2883.25753</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>5361.23337</v>
+        <v>5907.47372</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>13123.32525</v>
+        <v>13209.77551</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>11819.96408</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>13194.50971</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>14812.959</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>44.80551999999999</v>
@@ -1112,7 +1038,7 @@
         <v>726.2022099999999</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>1123.31084</v>
+        <v>1202.07044</v>
       </c>
       <c r="F9" s="47" t="n">
         <v>1126.6969</v>
@@ -1121,28 +1047,33 @@
         <v>867.77649</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>214.02963</v>
+        <v>218.37026</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>291.81765</v>
+        <v>346.3082</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>524.22319</v>
+        <v>614.7054300000001</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>909.2534000000001</v>
+        <v>1000.23341</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>531.9460799999999</v>
+        <v>574.4749300000001</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>1252.61011</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1267.0886</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>1676.5</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>33.68969</v>
@@ -1151,7 +1082,7 @@
         <v>716.2428199999999</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>995.28588</v>
+        <v>1074.04548</v>
       </c>
       <c r="F10" s="48" t="n">
         <v>955.25276</v>
@@ -1160,28 +1091,33 @@
         <v>774.86716</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>55.44396</v>
+        <v>58.81001999999999</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>234.80751</v>
+        <v>279.73208</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>422.2081</v>
+        <v>444.55884</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>891.78129</v>
+        <v>957.90658</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>267.33997</v>
+        <v>308.02541</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>789.29731</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>803.7758</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>1491.95</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>7.951989999999999</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>50.52642</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>32.417</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>3.16384</v>
@@ -1238,28 +1179,33 @@
         <v>9.0649</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>114.97716</v>
+        <v>115.95173</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>45.95058</v>
+        <v>55.51656</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>67.08544999999999</v>
+        <v>135.21695</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>1.71078</v>
+        <v>26.5655</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>243.13228</v>
+        <v>244.97569</v>
       </c>
       <c r="M12" s="48" t="n">
         <v>412.78638</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>152.133</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>32034.10506</v>
@@ -1268,37 +1214,42 @@
         <v>29179.5219</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>49825.91949</v>
+        <v>49747.15989</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>58779.87104</v>
+        <v>58813.33612</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>65434.71985</v>
+        <v>67303.46317</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>99260.41149</v>
+        <v>103642.87381</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>114239.17596</v>
+        <v>119244.39726</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>155661.40909</v>
+        <v>165514.49314</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>156036.6383</v>
+        <v>165118.43284</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>347100.91061</v>
+        <v>361542.46196</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>306848.65508</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>360168.31327</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>517374.58</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>26264.59415</v>
@@ -1313,31 +1264,36 @@
         <v>46400.95391</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>49500.53247999999</v>
+        <v>52558.92407</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>78343.13245</v>
+        <v>80916.81301000001</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>89927.59620999999</v>
+        <v>93100.24033</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>124095.14744</v>
+        <v>130255.06354</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>120111.02242</v>
+        <v>125397.09062</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>275274.18579</v>
+        <v>285725.11363</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>233634.97681</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>280212.60095</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>381623.758</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>67.40411999999999</v>
@@ -1367,16 +1323,21 @@
         <v>570.0916</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>1571.37039</v>
+        <v>2189.65194</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>4457.92159</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>5294.90031</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>1684.793</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>2592.81715</v>
@@ -1391,31 +1352,36 @@
         <v>5262.82338</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>5177.07431</v>
+        <v>5308.44157</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>15783.3088</v>
+        <v>15783.35054</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>14002.2289</v>
+        <v>14881.41695</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>24908.43595</v>
+        <v>25862.05428</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>18315.40358</v>
+        <v>19680.29408</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>113479.08687</v>
+        <v>114836.22377</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>51160.02548</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>64212.72952</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>86494.897</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>23422.50884</v>
@@ -1430,31 +1396,36 @@
         <v>40978.86246</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>43984.84506</v>
+        <v>46911.86939</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>62165.29849</v>
+        <v>64721.98815</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>75649.23341</v>
+        <v>77942.68948</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>98592.53595999999</v>
+        <v>103798.83373</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>100505.79467</v>
+        <v>104426.97237</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>159503.4588</v>
+        <v>167978.96819</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>176643.0107</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>209305.95208</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>291576.558</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>181.86404</v>
@@ -1472,7 +1443,7 @@
         <v>84.68871</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>236.36628</v>
+        <v>253.31544</v>
       </c>
       <c r="I18" s="48" t="n">
         <v>231.12819</v>
@@ -1487,13 +1458,18 @@
         <v>720.26973</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>1374.01904</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1399.01904</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>1867.51</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>5769.51091</v>
@@ -1502,76 +1478,86 @@
         <v>7019.22803</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>10239.68751</v>
+        <v>10160.92791</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>12378.91713</v>
+        <v>12412.38221</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>15934.18737</v>
+        <v>14744.5391</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>20917.27904</v>
+        <v>22726.0608</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>24311.57975</v>
+        <v>26144.15693</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>31566.26165</v>
+        <v>35259.4296</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>35925.61588</v>
+        <v>39721.34222</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>71826.72481999999</v>
+        <v>75817.34832999999</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>73213.67826999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>79955.71231999999</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>135750.822</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>5880.79213</v>
+        <v>5914.5274</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>7978.32908</v>
+        <v>7980.80408</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>10705.29522</v>
+        <v>11167.32559</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>13202.44507</v>
+        <v>13445.94278</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>15228.65915</v>
+        <v>15431.92787</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>21577.06615</v>
+        <v>24351.95295</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>28771.99607</v>
+        <v>31681.23234</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>36094.73699</v>
+        <v>39482.00285</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>40285.03869</v>
+        <v>43840.95859</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>75088.78391</v>
+        <v>79791.01881000001</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>78420.91203000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>86676.78990999999</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>145247.316</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>28.653</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>30.52425</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>5.117</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>606.01787</v>
@@ -1628,145 +1619,165 @@
         <v>2934.33718</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>4791.779320000001</v>
+        <v>5635.481559999999</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>6417.32928</v>
+        <v>7500.24149</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>7622.28199</v>
+        <v>8134.97761</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>9309.334480000001</v>
+        <v>9669.66735</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>19233.16841</v>
+        <v>21186.0441</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>26394.49678</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>29205.28392</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>61831.006</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>5246.12126</v>
+        <v>5279.85653</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>6388.36424</v>
+        <v>6390.83924</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>8931.841869999998</v>
+        <v>9393.872240000001</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>10893.13945</v>
+        <v>11136.63716</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>12294.32197</v>
+        <v>12497.59069</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>16779.65085</v>
+        <v>18710.83541</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>20424.55301</v>
+        <v>22250.87707</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>28472.455</v>
+        <v>31347.02524</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>30892.15126</v>
+        <v>34087.73829</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>55846.90661</v>
+        <v>58596.26582</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>51995.891</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>57440.98174</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>83411.193</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>-111.28122</v>
+        <v>-145.01649</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>-959.1010500000001</v>
+        <v>-961.57605</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-465.60771</v>
+        <v>-1006.39768</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-823.5279399999999</v>
+        <v>-1033.56057</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>705.5282199999999</v>
+        <v>-687.38877</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-659.78711</v>
+        <v>-1625.89215</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-4460.41632</v>
+        <v>-5537.07541</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-4528.47534</v>
+        <v>-4222.57325</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-4359.42281</v>
+        <v>-4119.61637</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-3262.05909</v>
+        <v>-3973.67048</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-5207.23376</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-6721.07759</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-9496.494000000001</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>146.81735</v>
+        <v>268.731</v>
       </c>
       <c r="D25" s="47" t="n">
         <v>232.1753</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>321.10562</v>
+        <v>603.62247</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>485.78314</v>
+        <v>997.20181</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>334.1299</v>
+        <v>7035.72456</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>245.58004</v>
+        <v>15335.4324</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>1896.44201</v>
+        <v>3966.99447</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>1359.18898</v>
+        <v>3409.53559</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>1128.05824</v>
+        <v>4470.27097</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>14644.39923</v>
+        <v>18612.20794</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>2967.31796</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>4317.82042</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>6890.895</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
@@ -1781,10 +1792,10 @@
         <v>0</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>0</v>
+        <v>1172.51016</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>0</v>
+        <v>1315.19308</v>
       </c>
       <c r="I26" s="48" t="n">
         <v>0</v>
@@ -1793,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>0</v>
+        <v>562</v>
       </c>
       <c r="L26" s="48" t="n">
         <v>0</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>15.65307</v>
@@ -1853,37 +1874,42 @@
         <v>34.56583</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>66.33113</v>
+        <v>66.41113</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>101.13336</v>
+        <v>139.3914</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>17.95678</v>
+        <v>271.5573</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>12.28027</v>
+        <v>514.25657</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>34.4235</v>
+        <v>288.25022</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>49.89908999999999</v>
+        <v>304.00867</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>27.69822</v>
+        <v>155.82998</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>216.11148</v>
+        <v>439.94082</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>568.78319</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>716.2242199999999</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>493.929</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0</v>
@@ -1901,7 +1927,7 @@
         <v>1.88936</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>0</v>
+        <v>11456.3306</v>
       </c>
       <c r="I29" s="48" t="n">
         <v>103.73573</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>38.36393</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>1.466</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>6.71265</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>32.31469</v>
@@ -1988,58 +2024,68 @@
         <v>0.6028300000000001</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>0.34384</v>
+        <v>0.6809500000000001</v>
       </c>
       <c r="L31" s="48" t="n">
         <v>0</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>38.90681</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>44.74301999999999</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>36.259</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>0.65258</v>
+        <v>122.56623</v>
       </c>
       <c r="D32" s="48" t="n">
         <v>143.72814</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>133.73002</v>
+        <v>416.16687</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>273.07182</v>
+        <v>746.23245</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>220.9532</v>
+        <v>5496.07567</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>110.37906</v>
+        <v>1711.84843</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>1205.45136</v>
+        <v>3018.57956</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>834.30995</v>
+        <v>2325.57431</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>752.53121</v>
+        <v>2788.02902</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>14009.36325</v>
+        <v>17423.19897</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>1889.3491</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>2657.49882</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>4939.656</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>2.91014</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>88.57422</v>
@@ -2132,70 +2188,80 @@
         <v>110.36516</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>85.49861</v>
+        <v>85.86011999999999</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>120.04801</v>
+        <v>334.93102</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>544.00533</v>
+        <v>547.6028699999999</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>257.35644</v>
+        <v>562.32911</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>200.16077</v>
+        <v>816.4068199999999</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>391.41506</v>
+        <v>721.55871</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>431.91493</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>860.9904300000001</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>1419.585</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>190.98</v>
+        <v>301.60981</v>
       </c>
       <c r="D36" s="47" t="n">
         <v>196.80445</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>368.69045</v>
+        <v>1444.57413</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>297.12758</v>
+        <v>591.8790799999999</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>268.52029</v>
+        <v>5143.18203</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>174.69101</v>
+        <v>13538.80734</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>1088.89029</v>
+        <v>3013.78202</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>870.54574</v>
+        <v>2333.10547</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>662.77734</v>
+        <v>2494.63425</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>14470.6872</v>
+        <v>19161.09859</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>1949.877</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>3001.50606</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>4446.768</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>14.55528</v>
@@ -2225,16 +2291,21 @@
         <v>6.28638</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>16.67937</v>
+        <v>16.68259</v>
       </c>
       <c r="M37" s="48" t="n">
         <v>16.74933</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>552.321</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>27.47354</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>26.54981</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>78.83199999999999</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>1.37527</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>1.271</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>10.63721</v>
+        <v>121.26702</v>
       </c>
       <c r="D40" s="48" t="n">
         <v>121.55569</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>177.64438</v>
+        <v>1253.52806</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>286.47089</v>
+        <v>581.22239</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>67.49963000000001</v>
+        <v>4942.16137</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>55.01573</v>
+        <v>13419.13206</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>849.2507800000001</v>
+        <v>2774.1425</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>736.56492</v>
+        <v>2184.82019</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>542.54786</v>
+        <v>2200.35568</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>13989.63866</v>
+        <v>18680.04681</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>1843.38754</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>2802.17508</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>3015.999</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>3e-05</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>23.756</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>136.93867</v>
@@ -2450,67 +2546,77 @@
         <v>29.25586</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>66.03996000000001</v>
+        <v>66.03997</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>73.06225000000001</v>
+        <v>87.36671000000001</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>72.82548</v>
+        <v>246.87457</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>397.12829</v>
+        <v>397.12831</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>63.19032</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>156.03184</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>774.5890000000001</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>86.55088000000001</v>
+        <v>104.36473</v>
       </c>
       <c r="D44" s="47" t="n">
         <v>118.78521</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>292.28885</v>
+        <v>532.18247</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>357.3911</v>
+        <v>359.30198</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>283.98857</v>
+        <v>544.5103</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>439.80365</v>
+        <v>921.62318</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>371.85063</v>
+        <v>497.71696</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>483.22788</v>
+        <v>865.26751</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>543.7351600000001</v>
+        <v>809.2989</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>1470.98842</v>
+        <v>2457.13966</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>1062.48041</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>2264.76191</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>2541.593</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>86.55088000000001</v>
+        <v>104.36473</v>
       </c>
       <c r="D45" s="48" t="n">
         <v>110.13359</v>
@@ -2519,34 +2625,39 @@
         <v>287.88702</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>357.3911</v>
+        <v>359.30198</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>275.70107</v>
+        <v>536.2228</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>439.80365</v>
+        <v>921.62318</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>353.1865</v>
+        <v>479.05283</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>471.26538</v>
+        <v>853.30501</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>534.4434</v>
+        <v>800.00714</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>1401.22881</v>
+        <v>2387.38005</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>1044.84909</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>2247.13059</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>2535.683</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>0</v>
@@ -2555,7 +2666,7 @@
         <v>8.651620000000001</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>4.40183</v>
+        <v>244.29545</v>
       </c>
       <c r="F46" s="48" t="n">
         <v>0</v>
@@ -2581,50 +2692,60 @@
       <c r="M46" s="48" t="n">
         <v>17.63132</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>5.91</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>-241.99475</v>
+        <v>-282.26003</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>-1042.51541</v>
+        <v>-1044.99041</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-805.48139</v>
+        <v>-2379.53181</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-992.26348</v>
+        <v>-987.53982</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>487.14926</v>
+        <v>660.64346</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-1028.70173</v>
+        <v>-750.89027</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-4024.71523</v>
+        <v>-5081.57992</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-4523.05998</v>
+        <v>-4011.41064</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-4437.87707</v>
+        <v>-2953.27855</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-4559.335480000001</v>
+        <v>-6979.70079</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-5252.27321</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-7669.52514</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-9593.959999999999</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>230.38296</v>
@@ -2633,37 +2754,42 @@
         <v>115.10548</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>150.83538</v>
+        <v>1291.80841</v>
       </c>
       <c r="F48" s="47" t="n">
         <v>377.52457</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>372.16212</v>
+        <v>372.18434</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>355.42345</v>
+        <v>356.99177</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>3906.05374</v>
+        <v>3927.99323</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>495.56659</v>
+        <v>2560.97472</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>645.51747</v>
+        <v>780.93882</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>2105.76184</v>
+        <v>2125.51681</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>1998.53252</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>2436.517</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>3545.263</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>16.0396</v>
@@ -2696,13 +2822,18 @@
         <v>108.70007</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>3.14662</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>3.33487</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>104.753</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>214.34336</v>
@@ -2711,37 +2842,42 @@
         <v>115.10548</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>134.9128</v>
+        <v>1275.88583</v>
       </c>
       <c r="F50" s="48" t="n">
         <v>377.52457</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>372.16212</v>
+        <v>372.18434</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>355.42345</v>
+        <v>356.99177</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>3905.79902</v>
+        <v>3927.73851</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>495.56659</v>
+        <v>2560.97472</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>644.01747</v>
+        <v>779.43882</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>1997.06177</v>
+        <v>2016.81674</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>1995.3859</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>2433.18213</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>3440.51</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>212.88063</v>
@@ -2750,37 +2886,42 @@
         <v>233.04701</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>2322.46643</v>
+        <v>4738.44414</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>483.8196</v>
+        <v>576.46332</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>615.34412</v>
+        <v>615.4403100000001</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>632.40004</v>
+        <v>641.8053299999999</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>673.90927</v>
+        <v>721.65741</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>1784.82651</v>
+        <v>2559.59716</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>949.7314699999999</v>
+        <v>1058.74509</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>2125.75217</v>
+        <v>2218.11135</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>1203.21776</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>1421.48701</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>2458.506</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>9.71735</v>
@@ -2813,13 +2954,18 @@
         <v>0</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>4.00204</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>26.08104</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>55.33</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>9.590450000000001</v>
@@ -2840,25 +2986,30 @@
         <v>34.24998</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>24.76596</v>
+        <v>30.52569</v>
       </c>
       <c r="J53" s="48" t="n">
         <v>3.12145</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>26.2679</v>
+        <v>26.69427</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>0</v>
+        <v>3.50346</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>1.47721</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>40.40615</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>36.257</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>193.57283</v>
@@ -2867,76 +3018,86 @@
         <v>232.09527</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>2292.06601</v>
+        <v>4708.04372</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>480.70088</v>
+        <v>573.3446</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>585.4416199999999</v>
+        <v>585.53781</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>597.18349</v>
+        <v>606.58878</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>648.17674</v>
+        <v>690.16515</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>1781.22178</v>
+        <v>2555.99243</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>923.46357</v>
+        <v>1032.05082</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>2125.75217</v>
+        <v>2214.60789</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>1197.73851</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>1354.99982</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>2366.919</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-224.49242</v>
+        <v>-264.7577</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>-1160.45694</v>
+        <v>-1162.93194</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-2977.11244</v>
+        <v>-5826.16754</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-1098.55851</v>
+        <v>-1186.47857</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>243.96726</v>
+        <v>417.38749</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-1305.67832</v>
+        <v>-1035.70383</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-792.5707600000001</v>
+        <v>-1875.2441</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-5812.3199</v>
+        <v>-4010.03308</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-4742.09107</v>
+        <v>-3231.08482</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-4579.325809999999</v>
+        <v>-7072.29533</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-4456.95845</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-6654.495150000001</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-8507.203</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>197.26346</v>
@@ -2951,67 +3112,75 @@
         <v>361.58937</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>517.35606</v>
+        <v>889.1571700000001</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>498.58671</v>
+        <v>835.21262</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>612.1195799999999</v>
+        <v>857.5616199999999</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>657.17651</v>
+        <v>956.6266999999999</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>731.04094</v>
+        <v>1142.25964</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>1349.01756</v>
+        <v>1499.92826</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>2141.7209</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>2330.168</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>3971.871</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-421.75588</v>
+        <v>-462.02116</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-1364.42048</v>
+        <v>-1366.89548</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-3311.65883</v>
+        <v>-6160.71393</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-1460.14788</v>
+        <v>-1548.06794</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-273.3888</v>
+        <v>-471.76968</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-1804.26503</v>
+        <v>-1870.91645</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-1404.69034</v>
+        <v>-2732.80572</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-6469.49641</v>
+        <v>-4966.65978</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-5473.132009999999</v>
+        <v>-4373.34446</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-5928.343370000001</v>
+        <v>-8572.22359</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-6598.679349999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-8984.66315</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-12479.074</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>388</v>
+        <v>407</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>436</v>
+        <v>469</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>457</v>
+        <v>492</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>507</v>
+        <v>564</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>638</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>